--- a/src/main/java/com/crm/qa/testdata/ExcelData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/ExcelData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4BCC8500-ACC7-4B5B-B255-3E99970C3AE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9037427E-5F95-4052-81CB-AB70B537DAAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16020" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16188" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Deal_Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
+  <oleSize ref="A1:K12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +87,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,17 +407,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,45 +433,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -479,13 +483,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F43DCD-FA84-43A7-9B9F-76DCC37BB72D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F805420-95AF-4479-9406-972E03250895}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
